--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/67/word_level_predictions_67.xlsx
@@ -814,366 +814,366 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Missed_I-Event</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2270,156 +2270,156 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="D37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,213 +2629,213 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,158 +4454,158 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="D79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18234,156 +18234,156 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -20730,262 +20730,262 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="n">
+      <c r="A391" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B391" t="inlineStr">
+      <c r="B391" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
+      <c r="C391" s="2" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D391" t="n">
+      <c r="D391" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E391" t="inlineStr">
+      <c r="E391" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G391" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I391" t="b">
-        <v>1</v>
-      </c>
-      <c r="J391" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K391" t="b">
-        <v>1</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F391" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G391" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I391" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K391" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L391" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="n">
+      <c r="A392" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B392" t="inlineStr">
+      <c r="B392" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
+      <c r="C392" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D392" t="n">
+      <c r="D392" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G392" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I392" t="b">
-        <v>1</v>
-      </c>
-      <c r="J392" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K392" t="b">
-        <v>1</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E392" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F392" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K392" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L392" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="n">
+      <c r="A393" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B393" t="inlineStr">
+      <c r="B393" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr">
+      <c r="C393" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D393" t="n">
+      <c r="D393" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G393" t="b">
-        <v>1</v>
-      </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I393" t="b">
-        <v>1</v>
-      </c>
-      <c r="J393" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K393" t="b">
-        <v>1</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E393" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F393" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G393" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I393" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K393" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L393" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="n">
+      <c r="A394" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B394" t="inlineStr">
+      <c r="B394" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr">
+      <c r="C394" s="2" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="D394" t="n">
+      <c r="D394" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G394" t="b">
-        <v>1</v>
-      </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I394" t="b">
-        <v>1</v>
-      </c>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K394" t="b">
-        <v>1</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E394" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F394" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K394" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L394" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="n">
+      <c r="A395" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B395" t="inlineStr">
+      <c r="B395" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
+      <c r="C395" s="2" t="inlineStr">
         <is>
           <t>files</t>
         </is>
       </c>
-      <c r="D395" t="n">
+      <c r="D395" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E395" t="inlineStr">
+      <c r="E395" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G395" t="b">
-        <v>1</v>
-      </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I395" t="b">
-        <v>1</v>
-      </c>
-      <c r="J395" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K395" t="b">
-        <v>1</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F395" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K395" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L395" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24162,106 +24162,106 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>0</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25878,364 +25878,364 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
+      <c r="F490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
+      <c r="F496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/67/word_level_predictions_67.xlsx
@@ -814,366 +814,366 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Missed_I-Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2270,156 +2270,156 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2605,237 +2605,237 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Settings</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>firmware</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Settings</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>update</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>firmware</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,158 +4454,158 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>8</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>8</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>8</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>2</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18234,156 +18234,156 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
+      <c r="F345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -20730,262 +20730,262 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="2" t="n">
+      <c r="A391" t="n">
         <v>35</v>
       </c>
-      <c r="B391" s="2" t="inlineStr">
+      <c r="B391" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C391" s="2" t="inlineStr">
+      <c r="C391" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D391" s="2" t="n">
+      <c r="D391" t="n">
         <v>4</v>
       </c>
-      <c r="E391" s="2" t="inlineStr">
+      <c r="E391" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F391" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J391" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K391" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L391" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G391" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I391" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K391" t="b">
+        <v>1</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="2" t="n">
+      <c r="A392" t="n">
         <v>35</v>
       </c>
-      <c r="B392" s="2" t="inlineStr">
+      <c r="B392" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C392" s="2" t="inlineStr">
+      <c r="C392" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D392" s="2" t="n">
+      <c r="D392" t="n">
         <v>5</v>
       </c>
-      <c r="E392" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F392" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J392" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K392" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L392" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G392" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I392" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K392" t="b">
+        <v>1</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="2" t="n">
+      <c r="A393" t="n">
         <v>35</v>
       </c>
-      <c r="B393" s="2" t="inlineStr">
+      <c r="B393" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C393" s="2" t="inlineStr">
+      <c r="C393" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D393" s="2" t="n">
+      <c r="D393" t="n">
         <v>6</v>
       </c>
-      <c r="E393" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F393" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H393" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J393" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K393" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L393" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G393" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I393" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K393" t="b">
+        <v>1</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="2" t="n">
+      <c r="A394" t="n">
         <v>35</v>
       </c>
-      <c r="B394" s="2" t="inlineStr">
+      <c r="B394" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C394" s="2" t="inlineStr">
+      <c r="C394" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="D394" s="2" t="n">
+      <c r="D394" t="n">
         <v>7</v>
       </c>
-      <c r="E394" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F394" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H394" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J394" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K394" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L394" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G394" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I394" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K394" t="b">
+        <v>1</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="2" t="n">
+      <c r="A395" t="n">
         <v>35</v>
       </c>
-      <c r="B395" s="2" t="inlineStr">
+      <c r="B395" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C395" s="2" t="inlineStr">
+      <c r="C395" t="inlineStr">
         <is>
           <t>files</t>
         </is>
       </c>
-      <c r="D395" s="2" t="n">
+      <c r="D395" t="n">
         <v>8</v>
       </c>
-      <c r="E395" s="2" t="inlineStr">
+      <c r="E395" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F395" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G395" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H395" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I395" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J395" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K395" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L395" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G395" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I395" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K395" t="b">
+        <v>1</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24162,106 +24162,106 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -25878,364 +25878,364 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
+      <c r="F490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
+      <c r="F496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
